--- a/data_samples/archived/week-5/next-week.xlsx
+++ b/data_samples/archived/week-5/next-week.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\week-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD848C7-77B6-49A1-9411-58B229804CE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0402AFB6-E32C-4F49-B86D-782F3E25A17C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:H2278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,13 +606,13 @@
       <c r="D2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="5">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="H2" s="5">
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -628,13 +628,13 @@
       <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="5">
-        <v>3.8</v>
+        <v>3.11</v>
       </c>
       <c r="H3" s="5">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -650,13 +650,13 @@
       <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" s="5">
         <v>1.65</v>
       </c>
       <c r="H4" s="5">
-        <v>2.2400000000000002</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5"/>
+      <c r="F5"/>
       <c r="G5" s="5">
-        <v>1.29</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H5" s="5">
-        <v>3.64</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -694,13 +694,13 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6" s="5">
-        <v>2.1800000000000002</v>
+        <v>2.36</v>
       </c>
       <c r="H6" s="5">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -716,13 +716,13 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7" s="5">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="H7" s="5">
-        <v>2.75</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -738,13 +738,13 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8" s="5">
-        <v>1.1299999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H8" s="5">
-        <v>6.05</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -760,13 +760,13 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9" s="5">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H9" s="5">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -782,13 +782,13 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10" s="5">
-        <v>2.76</v>
+        <v>3.17</v>
       </c>
       <c r="H10" s="5">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
